--- a/resources/wheels/235 - Слабко.xlsx
+++ b/resources/wheels/235 - Слабко.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -664,16 +664,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -868,9 +868,9 @@
       <c r="F16" s="18">
         <v>3.6</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.6999999999999993</v>
+        <v>24.741</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -904,7 +904,9 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="n">
+        <v>4.867</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="1"/>
     </row>
@@ -914,7 +916,9 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="n">
+        <v>5.844</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
     </row>
@@ -924,7 +928,9 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="n">
+        <v>4.33</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>
@@ -1478,16 +1484,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1682,9 +1688,9 @@
       <c r="F16" s="18">
         <v>3.6</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.6999999999999993</v>
+        <v>24.741</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1718,7 +1724,9 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="n">
+        <v>4.867</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="1"/>
     </row>
@@ -1728,7 +1736,9 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="n">
+        <v>5.844</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
     </row>
@@ -1738,7 +1748,9 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="n">
+        <v>4.33</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>
@@ -2292,16 +2304,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2496,9 +2508,9 @@
       <c r="F16" s="18">
         <v>3.6</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.6999999999999993</v>
+        <v>24.741</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2532,7 +2544,9 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="n">
+        <v>4.867</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="1"/>
     </row>
@@ -2542,7 +2556,9 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="n">
+        <v>5.844</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
     </row>
@@ -2552,7 +2568,9 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="n">
+        <v>4.33</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>
@@ -3106,16 +3124,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3310,9 +3328,9 @@
       <c r="F16" s="18">
         <v>3.6</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.6999999999999993</v>
+        <v>24.741</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3346,7 +3364,9 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="n">
+        <v>4.867</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="1"/>
     </row>
@@ -3356,7 +3376,9 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="n">
+        <v>5.844</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
     </row>
@@ -3366,7 +3388,9 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="n">
+        <v>4.33</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>
@@ -3920,16 +3944,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4124,9 +4148,9 @@
       <c r="F16" s="18">
         <v>3.6</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.6999999999999993</v>
+        <v>24.741</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4160,7 +4184,9 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="n">
+        <v>4.867</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="1"/>
     </row>
@@ -4170,7 +4196,9 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="n">
+        <v>5.844</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
     </row>
@@ -4180,7 +4208,9 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="n">
+        <v>4.33</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>
@@ -4734,16 +4764,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4938,9 +4968,9 @@
       <c r="F16" s="18">
         <v>3.6</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.6999999999999993</v>
+        <v>24.741</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4974,7 +5004,9 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="n">
+        <v>4.867</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="1"/>
     </row>
@@ -4984,7 +5016,9 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="n">
+        <v>5.844</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
     </row>
@@ -4994,7 +5028,9 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="n">
+        <v>4.33</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>
@@ -5548,16 +5584,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5752,9 +5788,9 @@
       <c r="F16" s="18">
         <v>3.6</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.6999999999999993</v>
+        <v>24.741</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5788,7 +5824,9 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="n">
+        <v>4.867</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="1"/>
     </row>
@@ -5798,7 +5836,9 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="n">
+        <v>5.844</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
     </row>
@@ -5808,7 +5848,9 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="n">
+        <v>4.33</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>
@@ -6362,16 +6404,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6566,9 +6608,9 @@
       <c r="F16" s="18">
         <v>3.6</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.6999999999999993</v>
+        <v>24.741</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6602,7 +6644,9 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="n">
+        <v>4.867</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="1"/>
     </row>
@@ -6612,7 +6656,9 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="n">
+        <v>5.844</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
     </row>
@@ -6622,7 +6668,9 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="n">
+        <v>4.33</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>
@@ -7176,16 +7224,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7380,9 +7428,9 @@
       <c r="F16" s="18">
         <v>3.6</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.6999999999999993</v>
+        <v>24.741</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7416,7 +7464,9 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="n">
+        <v>4.867</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="1"/>
     </row>
@@ -7426,7 +7476,9 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="n">
+        <v>5.844</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
     </row>
@@ -7436,7 +7488,9 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="n">
+        <v>4.33</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>
@@ -7990,16 +8044,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8194,9 +8248,9 @@
       <c r="F16" s="18">
         <v>3.6</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.6999999999999993</v>
+        <v>24.741</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8230,7 +8284,9 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="n">
+        <v>4.867</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="1"/>
     </row>
@@ -8240,7 +8296,9 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="n">
+        <v>5.844</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
     </row>
@@ -8250,7 +8308,9 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="n">
+        <v>4.33</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>
@@ -8804,16 +8864,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9008,9 +9068,9 @@
       <c r="F16" s="18">
         <v>3.6</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.6999999999999993</v>
+        <v>24.741</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9044,7 +9104,9 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="n">
+        <v>4.867</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="1"/>
     </row>
@@ -9054,7 +9116,9 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="n">
+        <v>5.844</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
     </row>
@@ -9064,7 +9128,9 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="n">
+        <v>4.33</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="1"/>
     </row>

--- a/resources/wheels/235 - Слабко.xlsx
+++ b/resources/wheels/235 - Слабко.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="49">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -140,6 +140,42 @@
   </si>
   <si>
     <t>AT 0777-7</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -658,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -870,7 +906,7 @@
       </c>
       <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>24.741</v>
+        <v>32.443999999999996</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -904,7 +940,7 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="18">
         <v>4.867</v>
       </c>
       <c r="G19" s="18"/>
@@ -916,8 +952,8 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18" t="n">
-        <v>5.844</v>
+      <c r="F20" s="18">
+        <v>5.8440000000000003</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
@@ -928,7 +964,7 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="18">
         <v>4.33</v>
       </c>
       <c r="G21" s="18"/>
@@ -940,7 +976,9 @@
       <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>3.7629999999999999</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="1"/>
     </row>
@@ -950,7 +988,9 @@
       <c r="E23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>2.944</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="1"/>
     </row>
@@ -960,20 +1000,30 @@
       <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>0.362</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0.634</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="E26" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
@@ -981,6 +1031,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="E27" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="1"/>
@@ -988,19 +1041,27 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="E28" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="E29" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -1009,7 +1070,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -1018,7 +1081,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -1027,7 +1092,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -1036,7 +1103,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -1045,7 +1114,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -1054,7 +1125,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -1479,7 +1552,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E25" sqref="E25:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1763,7 @@
       </c>
       <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>24.741</v>
+        <v>32.443999999999996</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1724,7 +1797,7 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="18">
         <v>4.867</v>
       </c>
       <c r="G19" s="18"/>
@@ -1736,8 +1809,8 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18" t="n">
-        <v>5.844</v>
+      <c r="F20" s="18">
+        <v>5.8440000000000003</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
@@ -1748,7 +1821,7 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="18">
         <v>4.33</v>
       </c>
       <c r="G21" s="18"/>
@@ -1760,7 +1833,9 @@
       <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>3.7629999999999999</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="1"/>
     </row>
@@ -1770,7 +1845,9 @@
       <c r="E23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>2.944</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="1"/>
     </row>
@@ -1780,20 +1857,30 @@
       <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>0.362</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0.634</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="E26" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
@@ -1801,6 +1888,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="E27" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="1"/>
@@ -1808,19 +1898,27 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="E28" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="E29" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -1829,7 +1927,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -1838,7 +1938,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -1847,7 +1949,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -1856,7 +1960,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -1865,7 +1971,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -1874,7 +1982,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -2299,7 +2409,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E25" sqref="E25:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2510,7 +2620,7 @@
       </c>
       <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>24.741</v>
+        <v>32.443999999999996</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2544,7 +2654,7 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="18">
         <v>4.867</v>
       </c>
       <c r="G19" s="18"/>
@@ -2556,8 +2666,8 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18" t="n">
-        <v>5.844</v>
+      <c r="F20" s="18">
+        <v>5.8440000000000003</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
@@ -2568,7 +2678,7 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="18">
         <v>4.33</v>
       </c>
       <c r="G21" s="18"/>
@@ -2580,7 +2690,9 @@
       <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>3.7629999999999999</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="1"/>
     </row>
@@ -2590,7 +2702,9 @@
       <c r="E23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>2.944</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="1"/>
     </row>
@@ -2600,20 +2714,30 @@
       <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>0.362</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0.634</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="E26" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
@@ -2621,6 +2745,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="E27" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="1"/>
@@ -2628,19 +2755,27 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="E28" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="E29" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -2649,7 +2784,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -2658,7 +2795,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -2667,7 +2806,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -2676,7 +2817,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -2685,7 +2828,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -2694,7 +2839,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -3119,7 +3266,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E25" sqref="E25:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3330,7 +3477,7 @@
       </c>
       <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>24.741</v>
+        <v>32.443999999999996</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3364,7 +3511,7 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="18">
         <v>4.867</v>
       </c>
       <c r="G19" s="18"/>
@@ -3376,8 +3523,8 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18" t="n">
-        <v>5.844</v>
+      <c r="F20" s="18">
+        <v>5.8440000000000003</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
@@ -3388,7 +3535,7 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="18">
         <v>4.33</v>
       </c>
       <c r="G21" s="18"/>
@@ -3400,7 +3547,9 @@
       <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>3.7629999999999999</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="1"/>
     </row>
@@ -3410,7 +3559,9 @@
       <c r="E23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>2.944</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="1"/>
     </row>
@@ -3420,20 +3571,30 @@
       <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>0.362</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0.634</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="E26" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
@@ -3441,6 +3602,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="E27" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="1"/>
@@ -3448,19 +3612,27 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="E28" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="E29" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -3469,7 +3641,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -3478,7 +3652,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -3487,7 +3663,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -3496,7 +3674,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -3505,7 +3685,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -3514,7 +3696,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -3939,7 +4123,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E25" sqref="E25:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4150,7 +4334,7 @@
       </c>
       <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>24.741</v>
+        <v>32.443999999999996</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4184,7 +4368,7 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="18">
         <v>4.867</v>
       </c>
       <c r="G19" s="18"/>
@@ -4196,8 +4380,8 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18" t="n">
-        <v>5.844</v>
+      <c r="F20" s="18">
+        <v>5.8440000000000003</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
@@ -4208,7 +4392,7 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="18">
         <v>4.33</v>
       </c>
       <c r="G21" s="18"/>
@@ -4220,7 +4404,9 @@
       <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>3.7629999999999999</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="1"/>
     </row>
@@ -4230,7 +4416,9 @@
       <c r="E23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>2.944</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="1"/>
     </row>
@@ -4240,20 +4428,30 @@
       <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>0.362</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0.634</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="E26" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
@@ -4261,6 +4459,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="E27" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="1"/>
@@ -4268,19 +4469,27 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="E28" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="E29" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -4289,7 +4498,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -4298,7 +4509,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -4307,7 +4520,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -4316,7 +4531,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -4325,7 +4542,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -4334,7 +4553,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -4759,7 +4980,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E25" sqref="E25:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4970,7 +5191,7 @@
       </c>
       <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>24.741</v>
+        <v>32.443999999999996</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5004,7 +5225,7 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="18">
         <v>4.867</v>
       </c>
       <c r="G19" s="18"/>
@@ -5016,8 +5237,8 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18" t="n">
-        <v>5.844</v>
+      <c r="F20" s="18">
+        <v>5.8440000000000003</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
@@ -5028,7 +5249,7 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="18">
         <v>4.33</v>
       </c>
       <c r="G21" s="18"/>
@@ -5040,7 +5261,9 @@
       <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>3.7629999999999999</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="1"/>
     </row>
@@ -5050,7 +5273,9 @@
       <c r="E23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>2.944</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="1"/>
     </row>
@@ -5060,20 +5285,30 @@
       <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>0.362</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0.634</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="E26" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
@@ -5081,6 +5316,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="E27" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="1"/>
@@ -5088,19 +5326,27 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="E28" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="E29" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -5109,7 +5355,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -5118,7 +5366,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -5127,7 +5377,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -5136,7 +5388,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -5145,7 +5399,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -5154,7 +5410,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -5579,7 +5837,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E25" sqref="E25:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5790,7 +6048,7 @@
       </c>
       <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>24.741</v>
+        <v>32.443999999999996</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5824,7 +6082,7 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="18">
         <v>4.867</v>
       </c>
       <c r="G19" s="18"/>
@@ -5836,8 +6094,8 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18" t="n">
-        <v>5.844</v>
+      <c r="F20" s="18">
+        <v>5.8440000000000003</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
@@ -5848,7 +6106,7 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="18">
         <v>4.33</v>
       </c>
       <c r="G21" s="18"/>
@@ -5860,7 +6118,9 @@
       <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>3.7629999999999999</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="1"/>
     </row>
@@ -5870,7 +6130,9 @@
       <c r="E23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>2.944</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="1"/>
     </row>
@@ -5880,20 +6142,30 @@
       <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>0.362</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0.634</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="E26" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
@@ -5901,6 +6173,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="E27" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="1"/>
@@ -5908,19 +6183,27 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="E28" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="E29" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -5929,7 +6212,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -5938,7 +6223,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -5947,7 +6234,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -5956,7 +6245,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -5965,7 +6256,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -5974,7 +6267,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -6399,7 +6694,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E25" sqref="E25:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6610,7 +6905,7 @@
       </c>
       <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>24.741</v>
+        <v>32.443999999999996</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6644,7 +6939,7 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="18">
         <v>4.867</v>
       </c>
       <c r="G19" s="18"/>
@@ -6656,8 +6951,8 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18" t="n">
-        <v>5.844</v>
+      <c r="F20" s="18">
+        <v>5.8440000000000003</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
@@ -6668,7 +6963,7 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="18">
         <v>4.33</v>
       </c>
       <c r="G21" s="18"/>
@@ -6680,7 +6975,9 @@
       <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>3.7629999999999999</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="1"/>
     </row>
@@ -6690,7 +6987,9 @@
       <c r="E23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>2.944</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="1"/>
     </row>
@@ -6700,20 +6999,30 @@
       <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>0.362</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0.634</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="E26" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
@@ -6721,6 +7030,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="E27" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="1"/>
@@ -6728,19 +7040,27 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="E28" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="E29" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -6749,7 +7069,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -6758,7 +7080,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -6767,7 +7091,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -6776,7 +7102,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -6785,7 +7113,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -6794,7 +7124,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -7219,7 +7551,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E25" sqref="E25:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7430,7 +7762,7 @@
       </c>
       <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>24.741</v>
+        <v>32.443999999999996</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7464,7 +7796,7 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="18">
         <v>4.867</v>
       </c>
       <c r="G19" s="18"/>
@@ -7476,8 +7808,8 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18" t="n">
-        <v>5.844</v>
+      <c r="F20" s="18">
+        <v>5.8440000000000003</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
@@ -7488,7 +7820,7 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="18">
         <v>4.33</v>
       </c>
       <c r="G21" s="18"/>
@@ -7500,7 +7832,9 @@
       <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>3.7629999999999999</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="1"/>
     </row>
@@ -7510,7 +7844,9 @@
       <c r="E23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>2.944</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="1"/>
     </row>
@@ -7520,20 +7856,30 @@
       <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>0.362</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0.634</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="E26" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
@@ -7541,6 +7887,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="E27" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="1"/>
@@ -7548,19 +7897,27 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="E28" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="E29" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -7569,7 +7926,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -7578,7 +7937,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -7587,7 +7948,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -7596,7 +7959,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -7605,7 +7970,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -7614,7 +7981,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -8039,7 +8408,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E25" sqref="E25:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8250,7 +8619,7 @@
       </c>
       <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>24.741</v>
+        <v>32.443999999999996</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8284,7 +8653,7 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="18">
         <v>4.867</v>
       </c>
       <c r="G19" s="18"/>
@@ -8296,8 +8665,8 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18" t="n">
-        <v>5.844</v>
+      <c r="F20" s="18">
+        <v>5.8440000000000003</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
@@ -8308,7 +8677,7 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="18">
         <v>4.33</v>
       </c>
       <c r="G21" s="18"/>
@@ -8320,7 +8689,9 @@
       <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>3.7629999999999999</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="1"/>
     </row>
@@ -8330,7 +8701,9 @@
       <c r="E23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>2.944</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="1"/>
     </row>
@@ -8340,20 +8713,30 @@
       <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>0.362</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0.634</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="E26" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
@@ -8361,6 +8744,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="E27" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="1"/>
@@ -8368,19 +8754,27 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="E28" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="E29" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -8389,7 +8783,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -8398,7 +8794,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -8407,7 +8805,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -8416,7 +8816,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -8425,7 +8827,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -8434,7 +8838,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
@@ -8859,7 +9265,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E25" sqref="E25:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9070,7 +9476,7 @@
       </c>
       <c r="G16" s="18" t="n">
         <f>SUM(F16:F100)</f>
-        <v>24.741</v>
+        <v>32.443999999999996</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9104,7 +9510,7 @@
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="18">
         <v>4.867</v>
       </c>
       <c r="G19" s="18"/>
@@ -9116,8 +9522,8 @@
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18" t="n">
-        <v>5.844</v>
+      <c r="F20" s="18">
+        <v>5.8440000000000003</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="1"/>
@@ -9128,7 +9534,7 @@
       <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="18">
         <v>4.33</v>
       </c>
       <c r="G21" s="18"/>
@@ -9140,7 +9546,9 @@
       <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>3.7629999999999999</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="1"/>
     </row>
@@ -9150,7 +9558,9 @@
       <c r="E23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>2.944</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="1"/>
     </row>
@@ -9160,20 +9570,30 @@
       <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>0.362</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0.634</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="E26" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="1"/>
@@ -9181,6 +9601,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="E27" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="1"/>
@@ -9188,19 +9611,27 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="E28" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="E29" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -9209,7 +9640,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -9218,7 +9651,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -9227,7 +9662,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -9236,7 +9673,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -9245,7 +9684,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1"/>
@@ -9254,7 +9695,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1"/>
